--- a/数学模型/历年真题/2016试题/A/data.xlsx
+++ b/数学模型/历年真题/2016试题/A/data.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="无人机参数" sheetId="1" r:id="rId1"/>
     <sheet name="目标群" sheetId="2" r:id="rId2"/>
+    <sheet name="目标" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">无人机参数!$B$2:$F$2</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="104">
   <si>
     <t>FY-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1937,6 +1938,18 @@
       </rPr>
       <t>A1005</t>
     </r>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2026,7 +2039,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2036,6 +2049,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2155,7 +2174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2198,9 +2217,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2214,6 +2230,24 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2499,7 +2533,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2581,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2600,7 +2634,7 @@
       <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2611,394 +2645,394 @@
       <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>-264715</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>-258719</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>-274728</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>-264728</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>-254728</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>-257733</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>-260731</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>-262733</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>-268733</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>-270739</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>-225605</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>-223598</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>-210605</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>-220610</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>-223615</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>-209615</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>-230620</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>-220622</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>-205618</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>-168538</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>-168542</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>-164544</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>-168545</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>-174544</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="15">
         <v>-210455</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <v>-180455</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="15">
         <v>-175452</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <v>-170453</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="15">
         <v>-185460</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="15">
         <v>-178460</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="15">
         <v>-190470</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <v>-183473</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="15">
         <v>-175472</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="15">
         <v>-180476</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="17"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
@@ -3007,7 +3041,7 @@
       <c r="B50" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3018,402 +3052,402 @@
       <c r="B51" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="14"/>
+      <c r="C51" s="19"/>
     </row>
     <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
     </row>
     <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="18">
         <v>-120400</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="18">
         <v>-119388</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="18">
         <v>-112394</v>
       </c>
-      <c r="C55" s="15"/>
+      <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="18">
         <v>-125410</v>
       </c>
-      <c r="C56" s="15"/>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="18">
         <v>-114405</v>
       </c>
-      <c r="C57" s="15"/>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="18">
         <v>-116410</v>
       </c>
-      <c r="C58" s="15"/>
+      <c r="C58" s="14"/>
     </row>
     <row r="59" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="18">
         <v>-113416</v>
       </c>
-      <c r="C59" s="15"/>
+      <c r="C59" s="14"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
     </row>
     <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
     </row>
     <row r="62" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="18">
         <v>-96304</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="18">
         <v>-88305</v>
       </c>
-      <c r="C63" s="15"/>
+      <c r="C63" s="14"/>
     </row>
     <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="18">
         <v>-100312</v>
       </c>
-      <c r="C64" s="15"/>
+      <c r="C64" s="14"/>
     </row>
     <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="18">
         <v>-93311</v>
       </c>
-      <c r="C65" s="15"/>
+      <c r="C65" s="14"/>
     </row>
     <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="19">
+      <c r="B66" s="18">
         <v>-86310</v>
       </c>
-      <c r="C66" s="15"/>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="18">
         <v>-94315</v>
       </c>
-      <c r="C67" s="15"/>
+      <c r="C67" s="14"/>
     </row>
     <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="15"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="15"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="14"/>
     </row>
     <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="15"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="14"/>
     </row>
     <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="18">
         <v>-10451</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="19">
+      <c r="B72" s="18">
         <v>-11449</v>
       </c>
-      <c r="C72" s="15"/>
+      <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="19">
+      <c r="B73" s="18">
         <v>-13450</v>
       </c>
-      <c r="C73" s="15"/>
+      <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="18">
         <v>-16450</v>
       </c>
-      <c r="C74" s="15"/>
+      <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="18">
         <v>-12453</v>
       </c>
-      <c r="C75" s="15"/>
+      <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B76" s="18">
         <v>-15455</v>
       </c>
-      <c r="C76" s="15"/>
+      <c r="C76" s="14"/>
     </row>
     <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="15"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="15"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="18">
         <v>-162660</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="18">
         <v>-161659</v>
       </c>
-      <c r="C80" s="15"/>
+      <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="19">
+      <c r="B81" s="18">
         <v>-159659</v>
       </c>
-      <c r="C81" s="15"/>
+      <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="19">
+      <c r="B82" s="18">
         <v>-160657</v>
       </c>
-      <c r="C82" s="15"/>
+      <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="18">
         <v>-164658</v>
       </c>
-      <c r="C83" s="15"/>
+      <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="15"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="14"/>
     </row>
     <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="15"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="14"/>
     </row>
     <row r="86" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B86" s="18">
         <v>-110561</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="18">
         <v>-110563</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="16"/>
     </row>
     <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B88" s="19">
+      <c r="B88" s="18">
         <v>-110565</v>
       </c>
-      <c r="C88" s="17"/>
+      <c r="C88" s="16"/>
     </row>
     <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="19">
+      <c r="B89" s="18">
         <v>-109567</v>
       </c>
-      <c r="C89" s="17"/>
+      <c r="C89" s="16"/>
     </row>
     <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="19">
+      <c r="B90" s="18">
         <v>-112568</v>
       </c>
-      <c r="C90" s="17"/>
+      <c r="C90" s="16"/>
     </row>
     <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
     </row>
     <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
     </row>
     <row r="93" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="18">
         <v>-105473</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="19">
+      <c r="B94" s="18">
         <v>-106471</v>
       </c>
-      <c r="C94" s="17"/>
+      <c r="C94" s="16"/>
     </row>
     <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="19">
+      <c r="B95" s="18">
         <v>-103473</v>
       </c>
-      <c r="C95" s="17"/>
+      <c r="C95" s="16"/>
     </row>
     <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="19">
+      <c r="B96" s="18">
         <v>-107475</v>
       </c>
-      <c r="C96" s="17"/>
+      <c r="C96" s="16"/>
     </row>
     <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="19">
+      <c r="B97" s="18">
         <v>-104477</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="16"/>
     </row>
     <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3424,4 +3458,669 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="23">
+        <v>-264715</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="15">
+        <v>-258719</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="15">
+        <v>-274728</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="15">
+        <v>-264728</v>
+      </c>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15">
+        <v>-254728</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="15">
+        <v>-257733</v>
+      </c>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="15">
+        <v>-260731</v>
+      </c>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="15">
+        <v>-262733</v>
+      </c>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="15">
+        <v>-268733</v>
+      </c>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="15">
+        <v>-270739</v>
+      </c>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="23">
+        <v>-225605</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="15">
+        <v>-223598</v>
+      </c>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="15">
+        <v>-210605</v>
+      </c>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="15">
+        <v>-220610</v>
+      </c>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="15">
+        <v>-223615</v>
+      </c>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="15">
+        <v>-209615</v>
+      </c>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="15">
+        <v>-230620</v>
+      </c>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="15">
+        <v>-220622</v>
+      </c>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="15">
+        <v>-205618</v>
+      </c>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="23">
+        <v>-168538</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="15">
+        <v>-168542</v>
+      </c>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="15">
+        <v>-164544</v>
+      </c>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="15">
+        <v>-168545</v>
+      </c>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="15">
+        <v>-174544</v>
+      </c>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="23">
+        <v>-210455</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="15">
+        <v>-180455</v>
+      </c>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="15">
+        <v>-175452</v>
+      </c>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="15">
+        <v>-170453</v>
+      </c>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="15">
+        <v>-185460</v>
+      </c>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="15">
+        <v>-178460</v>
+      </c>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="15">
+        <v>-190470</v>
+      </c>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="15">
+        <v>-183473</v>
+      </c>
+      <c r="C33" s="16"/>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="15">
+        <v>-175472</v>
+      </c>
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="15">
+        <v>-180476</v>
+      </c>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="24">
+        <v>-120400</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="18">
+        <v>-119388</v>
+      </c>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="18">
+        <v>-112394</v>
+      </c>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="18">
+        <v>-125410</v>
+      </c>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="18">
+        <v>-114405</v>
+      </c>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="18">
+        <v>-116410</v>
+      </c>
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="18">
+        <v>-113416</v>
+      </c>
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="24">
+        <v>-96304</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="18">
+        <v>-88305</v>
+      </c>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="18">
+        <v>-100312</v>
+      </c>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="18">
+        <v>-93311</v>
+      </c>
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="18">
+        <v>-86310</v>
+      </c>
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="18">
+        <v>-94315</v>
+      </c>
+      <c r="C48" s="14"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="24">
+        <v>-10451</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="18">
+        <v>-11449</v>
+      </c>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="18">
+        <v>-13450</v>
+      </c>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="18">
+        <v>-16450</v>
+      </c>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="18">
+        <v>-12453</v>
+      </c>
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="18">
+        <v>-15455</v>
+      </c>
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="24">
+        <v>-162660</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="18">
+        <v>-161659</v>
+      </c>
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="18">
+        <v>-159659</v>
+      </c>
+      <c r="C57" s="14"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="18">
+        <v>-160657</v>
+      </c>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="18">
+        <v>-164658</v>
+      </c>
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="24">
+        <v>-110561</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="18">
+        <v>-110563</v>
+      </c>
+      <c r="C61" s="16"/>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="18">
+        <v>-110565</v>
+      </c>
+      <c r="C62" s="16"/>
+    </row>
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="18">
+        <v>-109567</v>
+      </c>
+      <c r="C63" s="16"/>
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="18">
+        <v>-112568</v>
+      </c>
+      <c r="C64" s="16"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="24">
+        <v>-105473</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="18">
+        <v>-106471</v>
+      </c>
+      <c r="C66" s="16"/>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="18">
+        <v>-103473</v>
+      </c>
+      <c r="C67" s="16"/>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="18">
+        <v>-107475</v>
+      </c>
+      <c r="C68" s="16"/>
+    </row>
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="18">
+        <v>-104477</v>
+      </c>
+      <c r="C69" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>